--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1468143.628423203</v>
+        <v>1465891.548711994</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283199</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>63.25786276724306</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.2462644793349</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247945</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734097352</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>75.97812655527267</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>108.5491196979349</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.38185492767357</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>357.5738180516822</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>81.58403242496145</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>90.42270746034627</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>41.41379075544808</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,16 +1184,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>150.9601371840616</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>1.89717711244712</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>47.41254713315932</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710095</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>94.03099112488283</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936206</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>4.019807611472022</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>1.594095449514112</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833636</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161861753</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327293</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>148.0280580960795</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>166.3208822291519</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.836054204826</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>1681.836054204826</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839473</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2315.404380360518</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>1941.938622099438</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204826</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999837</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387324</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332769</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601619</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.02130239278</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064754</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125859</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619339</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.76045543161</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266133</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501179</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.7578170212613</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7578170212613</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4483,55 +4483,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.338775876041</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="S4" t="n">
-        <v>1760.718508466956</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T4" t="n">
-        <v>1538.951893036482</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U4" t="n">
-        <v>1249.849026162126</v>
+        <v>1224.73918161049</v>
       </c>
       <c r="V4" t="n">
-        <v>995.1645379562392</v>
+        <v>970.0546934046027</v>
       </c>
       <c r="W4" t="n">
-        <v>705.7473679192786</v>
+        <v>970.0546934046027</v>
       </c>
       <c r="X4" t="n">
-        <v>477.7578170212613</v>
+        <v>860.4091179521432</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.7578170212613</v>
+        <v>639.6165388086131</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1292.833068744076</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919558</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943746</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,16 +4668,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4689,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>774.7644039315074</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="C7" t="n">
-        <v>774.7644039315074</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>295.1374167748928</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>295.1374167748928</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1835.958479946729</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1835.958479946729</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1546.855613072372</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1292.171124866485</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W7" t="n">
-        <v>1002.753954829525</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X7" t="n">
-        <v>774.7644039315074</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y7" t="n">
-        <v>774.7644039315074</v>
+        <v>624.6989751875257</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>958.147330569356</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>572.3590779711117</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>565.4135772219082</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>150.3411270669047</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3062.830166081658</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2731.767278738087</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2731.767278738087</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1042.179465010819</v>
+        <v>681.6115596545848</v>
       </c>
       <c r="C10" t="n">
-        <v>873.2432820829119</v>
+        <v>512.6753767266779</v>
       </c>
       <c r="D10" t="n">
-        <v>723.1266426705762</v>
+        <v>362.5587373143421</v>
       </c>
       <c r="E10" t="n">
-        <v>575.2135490881831</v>
+        <v>214.645643731949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.3236015902727</v>
+        <v>214.645643731949</v>
       </c>
       <c r="G10" t="n">
-        <v>260.6207649649916</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>114.4035781828494</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>1672.610059882606</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X10" t="n">
-        <v>1444.620508984588</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="Y10" t="n">
-        <v>1223.827929841058</v>
+        <v>681.6115596545848</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J12" t="n">
-        <v>175.8744207939072</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1702.079034721981</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>961.4446166151475</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C13" t="n">
-        <v>792.5084336872407</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142553</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142553</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1363.885660588917</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y13" t="n">
-        <v>1143.093081445387</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191924</v>
+        <v>943.510265746754</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,7 +5516,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,22 +5540,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654475</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,31 +5747,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438179</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5893,13 +5893,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5969,22 +5969,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,28 +6221,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852254</v>
@@ -6260,16 +6260,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708911</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429842</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765931</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420835</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642678</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744661</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011309</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852254</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6601,19 +6601,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7181,43 +7181,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1809.460189369951</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1554.775701164064</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>816.5764010855557</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7546,19 +7546,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7634,25 +7634,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.074784788419493e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>54.58448189332952</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>37.12601365260329</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294906</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>147.0213775686983</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788753</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>65.54986409393551</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>138.4949402405115</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459777</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405077</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24974,7 +24974,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25448,7 +25448,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>119.8635921600922</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>934650.9824675408</v>
+        <v>934650.9824675407</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214785</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>919018.9160214786</v>
+        <v>919018.9160214785</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214785</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214785</v>
       </c>
     </row>
     <row r="15">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651774</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062539</v>
       </c>
       <c r="F2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="I2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="G2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062538</v>
-      </c>
       <c r="J2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062536</v>
@@ -26344,16 +26344,16 @@
         <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="N2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062538</v>
-      </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727594</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815723</v>
+        <v>90964.01098815697</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815717</v>
+        <v>90964.01098815705</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26476,10 +26476,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1014491.591111965</v>
+        <v>-1014491.591111967</v>
       </c>
       <c r="C6" t="n">
-        <v>314253.1546156262</v>
+        <v>314253.1546156273</v>
       </c>
       <c r="D6" t="n">
-        <v>314253.1546156266</v>
+        <v>314253.1546156267</v>
       </c>
       <c r="E6" t="n">
-        <v>66154.65695818573</v>
+        <v>66119.91903274936</v>
       </c>
       <c r="F6" t="n">
-        <v>391567.1187655409</v>
+        <v>391532.3808401052</v>
       </c>
       <c r="G6" t="n">
-        <v>391567.1187655409</v>
+        <v>391532.3808401056</v>
       </c>
       <c r="H6" t="n">
-        <v>391567.1187655409</v>
+        <v>391532.3808401051</v>
       </c>
       <c r="I6" t="n">
-        <v>391567.1187655407</v>
+        <v>391532.3808401049</v>
       </c>
       <c r="J6" t="n">
-        <v>174035.9163682636</v>
+        <v>174001.1784428276</v>
       </c>
       <c r="K6" t="n">
-        <v>391567.1187655407</v>
+        <v>391532.3808401049</v>
       </c>
       <c r="L6" t="n">
-        <v>391567.1187655409</v>
+        <v>391532.3808401052</v>
       </c>
       <c r="M6" t="n">
-        <v>306512.0908300289</v>
+        <v>306477.3529045931</v>
       </c>
       <c r="N6" t="n">
-        <v>391567.1187655408</v>
+        <v>391532.3808401051</v>
       </c>
       <c r="O6" t="n">
-        <v>391567.1187655408</v>
+        <v>391532.380840105</v>
       </c>
       <c r="P6" t="n">
-        <v>391567.1187655408</v>
+        <v>391532.3808401051</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>291.4251788534399</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>240.9947042380781</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S4" t="n">
-        <v>113.7908987761693</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>117.1605356911022</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.351986735807</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>28.66412060437142</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>84.44177583406677</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>99.34631787109562</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>253.1939736318724</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>100.0350347748404</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.1286311465811</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>48.93987327667877</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.571301715478522e-13</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29442,7 +29442,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -29484,7 +29484,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29673,7 +29673,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>209.7242506524599</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724546</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>508.3747716989719</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722594</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>592.1874941409608</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32339,10 +32339,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32558,28 +32558,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614918</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>653.3850396373771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33971,19 +33971,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>452.3405299254388</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701983</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.633379393484</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675403</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451106</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789377</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
-        <v>82.88662398579324</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>159.0482712280102</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>369.8203919190977</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502411</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>453.6331143610865</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394735</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>510.7887951929326</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37619,19 +37619,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
